--- a/millionaires.xlsx
+++ b/millionaires.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michiel\Desktop\Programmeren\Website EDF - Copy\app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3B32864-7255-406C-AF0D-6D095964DF56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24813920-9320-4FDE-B47A-32FAB2A719D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C865537F-C3D8-4460-933C-19A02B2E1811}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="337">
   <si>
     <t>Amulet of forsaken</t>
   </si>
@@ -381,9 +381,6 @@
     <t>Ragefire boots</t>
   </si>
   <si>
-    <t>Rage boots</t>
-  </si>
-  <si>
     <t xml:space="preserve">Reaper necklace </t>
   </si>
   <si>
@@ -961,6 +958,93 @@
   </si>
   <si>
     <t xml:space="preserve">Soul ornament kit </t>
+  </si>
+  <si>
+    <t>Alch hydrix</t>
+  </si>
+  <si>
+    <t>Alch onyx</t>
+  </si>
+  <si>
+    <t>3-10m</t>
+  </si>
+  <si>
+    <t>hydrix dust</t>
+  </si>
+  <si>
+    <t>500k- 1m</t>
+  </si>
+  <si>
+    <t>100k-300k</t>
+  </si>
+  <si>
+    <t>500k - 2m</t>
+  </si>
+  <si>
+    <t>1.5h +</t>
+  </si>
+  <si>
+    <t>Botg</t>
+  </si>
+  <si>
+    <t>Slike crest</t>
+  </si>
+  <si>
+    <t>Zammy crest</t>
+  </si>
+  <si>
+    <t>Zaros crest</t>
+  </si>
+  <si>
+    <t>Amascut sand</t>
+  </si>
+  <si>
+    <t>Eof kit</t>
+  </si>
+  <si>
+    <t>Jail cell key</t>
+  </si>
+  <si>
+    <t>inc hydrix</t>
+  </si>
+  <si>
+    <t>Manu amascut</t>
+  </si>
+  <si>
+    <t>Manu bik</t>
+  </si>
+  <si>
+    <t>Manu elid</t>
+  </si>
+  <si>
+    <t>Manu ful</t>
+  </si>
+  <si>
+    <t>Manu jas</t>
+  </si>
+  <si>
+    <t>Manu wen</t>
+  </si>
+  <si>
+    <t>pessence range</t>
+  </si>
+  <si>
+    <t>pessence magic</t>
+  </si>
+  <si>
+    <t>Reaper kit</t>
+  </si>
+  <si>
+    <t>Soul kit</t>
+  </si>
+  <si>
+    <t>Reprisal</t>
+  </si>
+  <si>
+    <t>Stat hammer</t>
+  </si>
+  <si>
+    <t>Wyvern cbow</t>
   </si>
 </sst>
 </file>
@@ -1024,7 +1108,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1048,6 +1132,7 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -1364,8 +1449,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{685347F5-B374-458E-B3E6-C430DE0EE1B9}">
   <dimension ref="A1:AA1081"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="A145" sqref="A145:XFD145"/>
+    <sheetView tabSelected="1" topLeftCell="A120" workbookViewId="0">
+      <selection activeCell="B146" sqref="B146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1381,10 +1466,10 @@
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>177</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>178</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>60</v>
@@ -1404,26 +1489,71 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>290</v>
+        <v>289</v>
+      </c>
+      <c r="B2" t="s">
+        <v>308</v>
+      </c>
+      <c r="C2" t="s">
+        <v>310</v>
       </c>
       <c r="D2" s="4">
         <v>10</v>
       </c>
+      <c r="E2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F2" t="s">
+        <v>315</v>
+      </c>
+      <c r="G2" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
+      </c>
+      <c r="B3" t="s">
+        <v>311</v>
+      </c>
+      <c r="C3" t="s">
+        <v>312</v>
       </c>
       <c r="D3" s="4">
         <v>100</v>
       </c>
+      <c r="E3" t="s">
+        <v>313</v>
+      </c>
+      <c r="F3" t="s">
+        <v>315</v>
+      </c>
+      <c r="G3" t="s">
+        <v>265</v>
+      </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
+      </c>
+      <c r="B4" t="s">
+        <v>309</v>
+      </c>
+      <c r="C4" t="s">
+        <v>314</v>
       </c>
       <c r="D4" s="4">
         <v>100</v>
+      </c>
+      <c r="E4" t="s">
+        <v>313</v>
+      </c>
+      <c r="F4" t="s">
+        <v>315</v>
+      </c>
+      <c r="G4" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.25">
@@ -2031,10 +2161,10 @@
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="B26" s="3" t="s">
         <v>179</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>180</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>43</v>
@@ -2054,10 +2184,10 @@
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="B27" s="3" t="s">
         <v>181</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>182</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>43</v>
@@ -2100,7 +2230,10 @@
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>293</v>
+        <v>292</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>316</v>
       </c>
       <c r="D29" s="4">
         <v>2</v>
@@ -2108,10 +2241,10 @@
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="B30" s="3" t="s">
         <v>183</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>184</v>
       </c>
       <c r="C30" s="3"/>
       <c r="D30" s="4"/>
@@ -2121,10 +2254,10 @@
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="B31" s="3" t="s">
         <v>263</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>264</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>43</v>
@@ -2136,10 +2269,10 @@
         <v>65</v>
       </c>
       <c r="F31" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="G31" s="3" t="s">
         <v>265</v>
-      </c>
-      <c r="G31" s="3" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.25">
@@ -2168,13 +2301,13 @@
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="B33" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="B33" s="3" t="s">
-        <v>268</v>
-      </c>
       <c r="C33" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D33" s="4">
         <v>2</v>
@@ -2183,18 +2316,18 @@
         <v>65</v>
       </c>
       <c r="F33" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="G33" s="3" t="s">
         <v>265</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="B34" s="3" t="s">
         <v>294</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>295</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>60</v>
@@ -2203,7 +2336,7 @@
         <v>10</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F34" s="3" t="s">
         <v>11</v>
@@ -2211,7 +2344,10 @@
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
+      </c>
+      <c r="B35" s="11" t="s">
+        <v>317</v>
       </c>
       <c r="D35" s="4">
         <v>10</v>
@@ -2219,7 +2355,10 @@
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
+      </c>
+      <c r="B36" s="11" t="s">
+        <v>318</v>
       </c>
       <c r="D36" s="4">
         <v>10</v>
@@ -2227,7 +2366,10 @@
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
+      </c>
+      <c r="B37" s="11" t="s">
+        <v>319</v>
       </c>
       <c r="D37" s="4">
         <v>10</v>
@@ -2235,16 +2377,19 @@
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>300</v>
+        <v>299</v>
+      </c>
+      <c r="B38" s="11" t="s">
+        <v>320</v>
       </c>
       <c r="D38" s="4"/>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="B39" s="3" t="s">
         <v>185</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>186</v>
       </c>
       <c r="C39" s="6" t="s">
         <v>60</v>
@@ -2264,10 +2409,10 @@
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="B40" s="3" t="s">
         <v>187</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>188</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>60</v>
@@ -2287,10 +2432,10 @@
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="B41" s="3" t="s">
         <v>189</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>190</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>43</v>
@@ -2308,10 +2453,10 @@
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="B42" s="3" t="s">
         <v>191</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>192</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>43</v>
@@ -2320,7 +2465,7 @@
         <v>2</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F42" s="3" t="s">
         <v>4</v>
@@ -2443,13 +2588,13 @@
     </row>
     <row r="47" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="C47" s="3" t="s">
         <v>194</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>195</v>
       </c>
       <c r="D47" s="4">
         <v>2</v>
@@ -2466,23 +2611,23 @@
     </row>
     <row r="48" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="B48" s="3" t="s">
         <v>269</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>270</v>
       </c>
       <c r="C48" s="3"/>
       <c r="D48" s="4"/>
       <c r="G48" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="49" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="B49" s="3" t="s">
         <v>271</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>272</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>18</v>
@@ -2491,15 +2636,15 @@
         <v>2</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="50" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="B50" s="3" t="s">
         <v>273</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>274</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>60</v>
@@ -2508,24 +2653,24 @@
         <v>2</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="51" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="B51" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="B51" s="3" t="s">
+      <c r="C51" s="3" t="s">
         <v>197</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>198</v>
       </c>
       <c r="D51" s="4">
         <v>10</v>
@@ -2542,13 +2687,13 @@
     </row>
     <row r="52" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="B52" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="B52" s="3" t="s">
-        <v>200</v>
-      </c>
       <c r="C52" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D52" s="4">
         <v>10</v>
@@ -2565,10 +2710,10 @@
     </row>
     <row r="53" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B53" s="3" t="s">
         <v>201</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>202</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>43</v>
@@ -2588,10 +2733,10 @@
     </row>
     <row r="54" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="B54" s="3" t="s">
         <v>203</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>204</v>
       </c>
       <c r="C54" s="3" t="s">
         <v>43</v>
@@ -2611,10 +2756,10 @@
     </row>
     <row r="55" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="B55" s="3" t="s">
         <v>205</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>206</v>
       </c>
       <c r="C55" s="3" t="s">
         <v>43</v>
@@ -2634,10 +2779,10 @@
     </row>
     <row r="56" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="B56" s="3" t="s">
         <v>207</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>208</v>
       </c>
       <c r="C56" s="3" t="s">
         <v>43</v>
@@ -2657,10 +2802,10 @@
     </row>
     <row r="57" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="B57" s="3" t="s">
         <v>209</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>210</v>
       </c>
       <c r="C57" s="3" t="s">
         <v>43</v>
@@ -2680,10 +2825,10 @@
     </row>
     <row r="58" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="B58" s="3" t="s">
         <v>211</v>
-      </c>
-      <c r="B58" s="3" t="s">
-        <v>212</v>
       </c>
       <c r="C58" s="3" t="s">
         <v>43</v>
@@ -2703,10 +2848,10 @@
     </row>
     <row r="59" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="B59" s="3" t="s">
         <v>213</v>
-      </c>
-      <c r="B59" s="3" t="s">
-        <v>214</v>
       </c>
       <c r="C59" s="3" t="s">
         <v>43</v>
@@ -2812,7 +2957,10 @@
     </row>
     <row r="62" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
+      </c>
+      <c r="B62" s="11" t="s">
+        <v>321</v>
       </c>
       <c r="D62" s="4"/>
     </row>
@@ -2933,13 +3081,13 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="B68" s="3" t="s">
         <v>276</v>
       </c>
-      <c r="B68" s="3" t="s">
+      <c r="C68" s="3" t="s">
         <v>277</v>
-      </c>
-      <c r="C68" s="3" t="s">
-        <v>278</v>
       </c>
       <c r="D68" s="4">
         <v>2</v>
@@ -2948,42 +3096,45 @@
         <v>65</v>
       </c>
       <c r="F68" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="G68" s="3" t="s">
         <v>265</v>
-      </c>
-      <c r="G68" s="3" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="B69" s="3" t="s">
         <v>279</v>
-      </c>
-      <c r="B69" s="3" t="s">
-        <v>280</v>
       </c>
       <c r="D69" s="4"/>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
+      </c>
+      <c r="B70" s="11" t="s">
+        <v>301</v>
       </c>
       <c r="D70" s="4"/>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="B71" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="B71" s="3" t="s">
+      <c r="C71" s="3" t="s">
         <v>216</v>
-      </c>
-      <c r="C71" s="3" t="s">
-        <v>217</v>
       </c>
       <c r="D71" s="4">
         <v>1</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F71" s="7" t="s">
         <v>113</v>
@@ -2994,19 +3145,19 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="B72" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="B72" s="3" t="s">
-        <v>219</v>
-      </c>
       <c r="C72" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D72" s="4">
         <v>1</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F72" s="7" t="s">
         <v>113</v>
@@ -3017,22 +3168,25 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>303</v>
+        <v>302</v>
+      </c>
+      <c r="B73" s="11" t="s">
+        <v>323</v>
       </c>
       <c r="D73" s="4"/>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="B74" s="3" t="s">
         <v>220</v>
-      </c>
-      <c r="B74" s="3" t="s">
-        <v>221</v>
       </c>
       <c r="D74" s="4">
         <v>2</v>
       </c>
       <c r="E74" s="7" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F74" s="7" t="s">
         <v>113</v>
@@ -3043,16 +3197,16 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="B75" s="3" t="s">
         <v>222</v>
-      </c>
-      <c r="B75" s="3" t="s">
-        <v>223</v>
       </c>
       <c r="D75" s="4">
         <v>2</v>
       </c>
       <c r="E75" s="7" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F75" s="7" t="s">
         <v>113</v>
@@ -3063,10 +3217,10 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="B76" s="3" t="s">
         <v>224</v>
-      </c>
-      <c r="B76" s="3" t="s">
-        <v>225</v>
       </c>
       <c r="C76" s="3" t="s">
         <v>78</v>
@@ -3075,7 +3229,7 @@
         <v>2</v>
       </c>
       <c r="E76" s="7" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F76" s="7" t="s">
         <v>113</v>
@@ -3086,10 +3240,10 @@
     </row>
     <row r="77" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="B77" s="3" t="s">
         <v>226</v>
-      </c>
-      <c r="B77" s="3" t="s">
-        <v>227</v>
       </c>
       <c r="D77" s="4">
         <v>2</v>
@@ -3104,16 +3258,19 @@
     </row>
     <row r="78" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
+      </c>
+      <c r="B78" s="11" t="s">
+        <v>322</v>
       </c>
       <c r="D78" s="4"/>
     </row>
     <row r="79" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="B79" s="3" t="s">
         <v>228</v>
-      </c>
-      <c r="B79" s="3" t="s">
-        <v>229</v>
       </c>
       <c r="C79" s="3"/>
       <c r="D79" s="4"/>
@@ -3125,10 +3282,10 @@
     </row>
     <row r="80" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="B80" s="3" t="s">
         <v>230</v>
-      </c>
-      <c r="B80" s="3" t="s">
-        <v>231</v>
       </c>
       <c r="C80" s="3"/>
       <c r="D80" s="4"/>
@@ -3140,13 +3297,13 @@
     </row>
     <row r="81" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="B81" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="B81" s="3" t="s">
-        <v>233</v>
-      </c>
       <c r="C81" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D81" s="4">
         <v>2</v>
@@ -3163,25 +3320,25 @@
     </row>
     <row r="82" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="B82" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="B82" s="3" t="s">
+      <c r="C82" s="3" t="s">
         <v>235</v>
-      </c>
-      <c r="C82" s="3" t="s">
-        <v>236</v>
       </c>
       <c r="D82" s="4">
         <v>2</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G82" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="83" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3209,13 +3366,13 @@
     </row>
     <row r="84" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="B84" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="B84" s="3" t="s">
-        <v>238</v>
-      </c>
       <c r="C84" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D84" s="4">
         <v>2</v>
@@ -3232,10 +3389,10 @@
     </row>
     <row r="85" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="B85" s="3" t="s">
         <v>239</v>
-      </c>
-      <c r="B85" s="3" t="s">
-        <v>240</v>
       </c>
       <c r="C85" s="3" t="s">
         <v>60</v>
@@ -3278,49 +3435,67 @@
     </row>
     <row r="87" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="10" t="s">
-        <v>281</v>
+        <v>280</v>
+      </c>
+      <c r="B87" s="11" t="s">
+        <v>324</v>
       </c>
       <c r="D87" s="4"/>
     </row>
     <row r="88" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="10" t="s">
-        <v>282</v>
+        <v>281</v>
+      </c>
+      <c r="B88" s="11" t="s">
+        <v>325</v>
       </c>
       <c r="D88" s="4"/>
     </row>
     <row r="89" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="10" t="s">
-        <v>283</v>
+        <v>282</v>
+      </c>
+      <c r="B89" s="11" t="s">
+        <v>326</v>
       </c>
       <c r="D89" s="4"/>
     </row>
     <row r="90" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="10" t="s">
-        <v>284</v>
+        <v>283</v>
+      </c>
+      <c r="B90" s="11" t="s">
+        <v>327</v>
       </c>
       <c r="D90" s="4"/>
     </row>
     <row r="91" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="10" t="s">
-        <v>285</v>
+        <v>284</v>
+      </c>
+      <c r="B91" s="11" t="s">
+        <v>328</v>
       </c>
       <c r="D91" s="4"/>
     </row>
     <row r="92" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="10" t="s">
-        <v>286</v>
+        <v>285</v>
+      </c>
+      <c r="B92" s="11" t="s">
+        <v>329</v>
       </c>
       <c r="D92" s="4"/>
     </row>
     <row r="93" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="B93" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="B93" s="3" t="s">
-        <v>288</v>
-      </c>
       <c r="C93" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D93" s="3">
         <v>2</v>
@@ -3332,7 +3507,7 @@
         <v>113</v>
       </c>
       <c r="G93" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="94" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3360,10 +3535,10 @@
     </row>
     <row r="95" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="B95" s="3" t="s">
         <v>241</v>
-      </c>
-      <c r="B95" s="3" t="s">
-        <v>242</v>
       </c>
       <c r="C95" s="3" t="s">
         <v>43</v>
@@ -3406,13 +3581,13 @@
     </row>
     <row r="97" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="B97" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="B97" s="3" t="s">
-        <v>244</v>
-      </c>
       <c r="C97" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D97" s="4">
         <v>2</v>
@@ -3429,10 +3604,10 @@
     </row>
     <row r="98" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="B98" s="3" t="s">
         <v>245</v>
-      </c>
-      <c r="B98" s="3" t="s">
-        <v>246</v>
       </c>
       <c r="C98" s="3" t="s">
         <v>60</v>
@@ -3610,13 +3785,19 @@
     </row>
     <row r="105" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
-        <v>305</v>
+        <v>304</v>
+      </c>
+      <c r="B105" s="11" t="s">
+        <v>330</v>
       </c>
       <c r="D105" s="4"/>
     </row>
     <row r="106" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
-        <v>306</v>
+        <v>305</v>
+      </c>
+      <c r="B106" s="11" t="s">
+        <v>331</v>
       </c>
       <c r="D106" s="4"/>
     </row>
@@ -3625,7 +3806,7 @@
         <v>114</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C107" s="1"/>
       <c r="D107" s="2">
@@ -3661,10 +3842,10 @@
     </row>
     <row r="108" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B108" s="1" t="s">
         <v>116</v>
-      </c>
-      <c r="B108" s="1" t="s">
-        <v>117</v>
       </c>
       <c r="C108" s="1" t="s">
         <v>2</v>
@@ -3702,25 +3883,31 @@
     </row>
     <row r="109" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
-        <v>307</v>
+        <v>306</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>332</v>
       </c>
       <c r="D109" s="4"/>
     </row>
     <row r="110" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="10" t="s">
-        <v>289</v>
+        <v>288</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>334</v>
       </c>
       <c r="D110" s="4"/>
     </row>
     <row r="111" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B111" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="B111" s="1" t="s">
+      <c r="C111" s="1" t="s">
         <v>119</v>
-      </c>
-      <c r="C111" s="1" t="s">
-        <v>120</v>
       </c>
       <c r="D111" s="2">
         <v>100</v>
@@ -3757,13 +3944,13 @@
     </row>
     <row r="112" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B112" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="B112" s="3" t="s">
+      <c r="C112" s="3" t="s">
         <v>122</v>
-      </c>
-      <c r="C112" s="3" t="s">
-        <v>123</v>
       </c>
       <c r="D112" s="4">
         <v>2</v>
@@ -3778,13 +3965,13 @@
     </row>
     <row r="113" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B113" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B113" s="1" t="s">
+      <c r="C113" s="1" t="s">
         <v>125</v>
-      </c>
-      <c r="C113" s="1" t="s">
-        <v>126</v>
       </c>
       <c r="D113" s="2">
         <v>2</v>
@@ -3819,13 +4006,13 @@
     </row>
     <row r="114" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B114" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B114" s="1" t="s">
+      <c r="C114" s="1" t="s">
         <v>128</v>
-      </c>
-      <c r="C114" s="1" t="s">
-        <v>129</v>
       </c>
       <c r="D114" s="2">
         <v>2</v>
@@ -3860,13 +4047,13 @@
     </row>
     <row r="115" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B115" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="B115" s="1" t="s">
-        <v>131</v>
-      </c>
       <c r="C115" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D115" s="2">
         <v>2</v>
@@ -3901,10 +4088,10 @@
     </row>
     <row r="116" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B116" s="3" t="s">
         <v>132</v>
-      </c>
-      <c r="B116" s="3" t="s">
-        <v>133</v>
       </c>
       <c r="C116" s="3" t="s">
         <v>18</v>
@@ -3920,16 +4107,19 @@
     </row>
     <row r="117" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
-        <v>308</v>
+        <v>307</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>333</v>
       </c>
       <c r="D117" s="4"/>
     </row>
     <row r="118" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="B118" s="7" t="s">
         <v>247</v>
-      </c>
-      <c r="B118" s="7" t="s">
-        <v>248</v>
       </c>
       <c r="C118" s="7"/>
       <c r="D118" s="8"/>
@@ -3959,10 +4149,10 @@
     </row>
     <row r="119" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B119" s="1" t="s">
         <v>134</v>
-      </c>
-      <c r="B119" s="1" t="s">
-        <v>135</v>
       </c>
       <c r="C119" s="1" t="s">
         <v>15</v>
@@ -4002,13 +4192,13 @@
     </row>
     <row r="120" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="B120" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="B120" s="3" t="s">
-        <v>250</v>
-      </c>
       <c r="C120" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D120" s="4">
         <v>10</v>
@@ -4025,9 +4215,11 @@
     </row>
     <row r="121" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="B121" s="7"/>
+        <v>250</v>
+      </c>
+      <c r="B121" s="7" t="s">
+        <v>335</v>
+      </c>
       <c r="C121" s="7"/>
       <c r="D121" s="8"/>
       <c r="E121" s="7"/>
@@ -4056,10 +4248,10 @@
     </row>
     <row r="122" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B122" s="1" t="s">
         <v>136</v>
-      </c>
-      <c r="B122" s="1" t="s">
-        <v>137</v>
       </c>
       <c r="C122" s="1"/>
       <c r="D122" s="2">
@@ -4093,10 +4285,10 @@
     </row>
     <row r="123" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B123" s="3" t="s">
         <v>138</v>
-      </c>
-      <c r="B123" s="3" t="s">
-        <v>139</v>
       </c>
       <c r="C123" s="3" t="s">
         <v>43</v>
@@ -4116,10 +4308,10 @@
     </row>
     <row r="124" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B124" s="3" t="s">
         <v>140</v>
-      </c>
-      <c r="B124" s="3" t="s">
-        <v>141</v>
       </c>
       <c r="C124" s="3" t="s">
         <v>43</v>
@@ -4139,10 +4331,10 @@
     </row>
     <row r="125" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B125" s="3" t="s">
         <v>142</v>
-      </c>
-      <c r="B125" s="3" t="s">
-        <v>143</v>
       </c>
       <c r="C125" s="3" t="s">
         <v>43</v>
@@ -4162,10 +4354,10 @@
     </row>
     <row r="126" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B126" s="3" t="s">
         <v>144</v>
-      </c>
-      <c r="B126" s="3" t="s">
-        <v>145</v>
       </c>
       <c r="C126" s="3" t="s">
         <v>43</v>
@@ -4185,10 +4377,10 @@
     </row>
     <row r="127" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B127" s="3" t="s">
         <v>146</v>
-      </c>
-      <c r="B127" s="3" t="s">
-        <v>147</v>
       </c>
       <c r="C127" s="3" t="s">
         <v>43</v>
@@ -4208,10 +4400,10 @@
     </row>
     <row r="128" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B128" s="3" t="s">
         <v>148</v>
-      </c>
-      <c r="B128" s="3" t="s">
-        <v>149</v>
       </c>
       <c r="C128" s="3"/>
       <c r="D128" s="4">
@@ -4223,10 +4415,10 @@
     </row>
     <row r="129" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B129" s="3" t="s">
         <v>150</v>
-      </c>
-      <c r="B129" s="3" t="s">
-        <v>151</v>
       </c>
       <c r="C129" s="3"/>
       <c r="D129" s="4">
@@ -4238,10 +4430,10 @@
     </row>
     <row r="130" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B130" s="3" t="s">
         <v>152</v>
-      </c>
-      <c r="B130" s="3" t="s">
-        <v>153</v>
       </c>
       <c r="C130" s="3"/>
       <c r="D130" s="4">
@@ -4253,19 +4445,19 @@
     </row>
     <row r="131" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D131" s="4">
         <v>1</v>
       </c>
       <c r="E131" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F131" s="3" t="s">
         <v>11</v>
@@ -4276,10 +4468,10 @@
     </row>
     <row r="132" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B132" s="3" t="s">
         <v>156</v>
-      </c>
-      <c r="B132" s="3" t="s">
-        <v>157</v>
       </c>
       <c r="C132" s="3" t="s">
         <v>60</v>
@@ -4288,7 +4480,7 @@
         <v>2</v>
       </c>
       <c r="E132" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F132" s="3" t="s">
         <v>11</v>
@@ -4299,19 +4491,19 @@
     </row>
     <row r="133" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D133" s="4">
         <v>1</v>
       </c>
       <c r="E133" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F133" s="3" t="s">
         <v>11</v>
@@ -4322,10 +4514,10 @@
     </row>
     <row r="134" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="B134" s="3" t="s">
         <v>159</v>
-      </c>
-      <c r="B134" s="3" t="s">
-        <v>160</v>
       </c>
       <c r="C134" s="3" t="s">
         <v>60</v>
@@ -4334,7 +4526,7 @@
         <v>2</v>
       </c>
       <c r="E134" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F134" s="3" t="s">
         <v>11</v>
@@ -4345,10 +4537,10 @@
     </row>
     <row r="135" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B135" s="3" t="s">
         <v>161</v>
-      </c>
-      <c r="B135" s="3" t="s">
-        <v>162</v>
       </c>
       <c r="C135" s="3" t="s">
         <v>60</v>
@@ -4357,7 +4549,7 @@
         <v>2</v>
       </c>
       <c r="E135" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F135" s="3" t="s">
         <v>11</v>
@@ -4368,10 +4560,10 @@
     </row>
     <row r="136" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="B136" s="3" t="s">
         <v>163</v>
-      </c>
-      <c r="B136" s="3" t="s">
-        <v>164</v>
       </c>
       <c r="C136" s="3" t="s">
         <v>43</v>
@@ -4391,10 +4583,10 @@
     </row>
     <row r="137" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="B137" s="3" t="s">
         <v>252</v>
-      </c>
-      <c r="B137" s="3" t="s">
-        <v>253</v>
       </c>
       <c r="C137" s="3" t="s">
         <v>73</v>
@@ -4414,19 +4606,19 @@
     </row>
     <row r="138" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B138" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="C138" s="3" t="s">
         <v>165</v>
-      </c>
-      <c r="B138" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="C138" s="3" t="s">
-        <v>166</v>
       </c>
       <c r="D138" s="4">
         <v>1</v>
       </c>
       <c r="E138" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F138" s="3" t="s">
         <v>11</v>
@@ -4437,19 +4629,19 @@
     </row>
     <row r="139" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D139" s="4">
         <v>1</v>
       </c>
       <c r="E139" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F139" s="3" t="s">
         <v>11</v>
@@ -4460,19 +4652,19 @@
     </row>
     <row r="140" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="B140" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="B140" s="3" t="s">
-        <v>170</v>
-      </c>
       <c r="C140" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D140" s="4">
         <v>2</v>
       </c>
       <c r="E140" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F140" s="3" t="s">
         <v>11</v>
@@ -4483,19 +4675,19 @@
     </row>
     <row r="141" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B141" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="B141" s="3" t="s">
-        <v>173</v>
-      </c>
       <c r="C141" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D141" s="4">
         <v>2</v>
       </c>
       <c r="E141" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F141" s="3" t="s">
         <v>11</v>
@@ -4506,10 +4698,10 @@
     </row>
     <row r="142" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="B142" s="3" t="s">
         <v>174</v>
-      </c>
-      <c r="B142" s="3" t="s">
-        <v>175</v>
       </c>
       <c r="C142" s="3"/>
       <c r="D142" s="4">
@@ -4521,10 +4713,10 @@
     </row>
     <row r="143" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="B143" s="3" t="s">
         <v>254</v>
-      </c>
-      <c r="B143" s="3" t="s">
-        <v>255</v>
       </c>
       <c r="C143" s="3" t="s">
         <v>73</v>
@@ -4544,10 +4736,10 @@
     </row>
     <row r="144" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C144" s="3"/>
       <c r="D144" s="4">
@@ -4559,9 +4751,11 @@
     </row>
     <row r="145" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="B145" s="3"/>
+        <v>255</v>
+      </c>
+      <c r="B145" s="11" t="s">
+        <v>336</v>
+      </c>
       <c r="C145" s="3"/>
       <c r="D145" s="4"/>
       <c r="E145" s="3"/>
@@ -4570,13 +4764,13 @@
     </row>
     <row r="146" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="B146" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="B146" s="3" t="s">
-        <v>258</v>
-      </c>
       <c r="C146" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D146" s="4">
         <v>10</v>
@@ -4593,10 +4787,10 @@
     </row>
     <row r="147" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="B147" s="3" t="s">
         <v>259</v>
-      </c>
-      <c r="B147" s="3" t="s">
-        <v>260</v>
       </c>
       <c r="C147" s="3"/>
       <c r="D147" s="4"/>
@@ -4606,10 +4800,10 @@
     </row>
     <row r="148" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="B148" s="3" t="s">
         <v>261</v>
-      </c>
-      <c r="B148" s="3" t="s">
-        <v>262</v>
       </c>
       <c r="C148" s="3" t="s">
         <v>40</v>
